--- a/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E023FDE-2B3E-B647-95FF-5D28B81C9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079B57F-B80D-5944-B704-7806BA329A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
   <si>
     <t>DOI</t>
   </si>
@@ -203,6 +203,63 @@
   </si>
   <si>
     <t>Constant</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01650-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01652-0_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01652-0_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01652-0_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01674-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01763-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01774-z_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01774-z_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01800-0_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01800-0_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01831-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01857-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01935-0_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01935-0_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01935-0_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01949-8_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01954-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01957-8_zero_fig1</t>
   </si>
 </sst>
 </file>
@@ -603,104 +660,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
@@ -709,286 +772,313 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
       </c>
       <c r="I6" t="s">
         <v>52</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>60</v>
       </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
@@ -997,158 +1087,173 @@
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
       </c>
       <c r="I13" t="s">
         <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>46</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>57</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>58</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>50</v>
       </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>46</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>57</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>50</v>
       </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>58</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>50</v>
       </c>
-      <c r="J16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
       </c>
       <c r="H17" t="s">
         <v>48</v>
@@ -1157,30 +1262,33 @@
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
       </c>
       <c r="H18" t="s">
         <v>47</v>
@@ -1189,38 +1297,44 @@
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>46</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>48</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>49</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>48</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>45</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079B57F-B80D-5944-B704-7806BA329A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9D049-BBFA-164E-B414-75E59DA7CA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
   <si>
     <t>DOI</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Measured value</t>
   </si>
   <si>
-    <t>Pearson's coefficient</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -175,24 +172,15 @@
     <t>Prediction metric</t>
   </si>
   <si>
-    <t>Fraction</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Compressive modulus</t>
-  </si>
-  <si>
     <t>Modulus</t>
   </si>
   <si>
-    <t>Specificity</t>
-  </si>
-  <si>
     <t>Calculated value</t>
   </si>
   <si>
@@ -260,6 +248,9 @@
   </si>
   <si>
     <t>10.1038:s41587-023-01957-8_zero_fig1</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -662,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,7 +666,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -710,7 +701,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -737,15 +728,15 @@
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -766,21 +757,21 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -801,21 +792,21 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -836,21 +827,21 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -874,10 +865,10 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -885,7 +876,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -909,18 +900,18 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -944,18 +935,18 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -973,24 +964,24 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1008,24 +999,24 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1043,24 +1034,24 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1078,24 +1069,24 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1119,18 +1110,18 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1148,24 +1139,24 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1183,24 +1174,24 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1218,24 +1209,24 @@
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1253,24 +1244,24 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1288,24 +1279,24 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1323,19 +1314,19 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>48</v>
       </c>
-      <c r="I19" t="s">
-        <v>49</v>
-      </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9D049-BBFA-164E-B414-75E59DA7CA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8671ACE-2BD1-D541-8828-25CF1E896C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
   <si>
     <t>DOI</t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>Count</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Modulus</t>
   </si>
   <si>
     <t>Calculated value</t>
@@ -654,7 +648,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -666,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -701,7 +695,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -736,7 +730,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -771,7 +765,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -806,7 +800,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -841,7 +835,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -876,7 +870,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -911,7 +905,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -935,10 +929,10 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
         <v>44</v>
@@ -946,7 +940,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -970,7 +964,7 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
@@ -981,7 +975,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1002,13 +996,13 @@
         <v>45</v>
       </c>
       <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
         <v>44</v>
@@ -1016,7 +1010,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1037,13 +1031,13 @@
         <v>45</v>
       </c>
       <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -1051,7 +1045,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1086,7 +1080,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1121,7 +1115,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1142,10 +1136,10 @@
         <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
@@ -1156,7 +1150,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1177,10 +1171,10 @@
         <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
@@ -1191,7 +1185,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1212,10 +1206,10 @@
         <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
@@ -1226,7 +1220,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1261,7 +1255,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1296,7 +1290,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>

--- a/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8671ACE-2BD1-D541-8828-25CF1E896C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0834C-0895-E945-9419-81F74FD55FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -748,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>47</v>
@@ -783,7 +783,7 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -818,7 +818,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>

--- a/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0834C-0895-E945-9419-81F74FD55FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BB7A8-FE5D-E840-841E-F95B7FFE5BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,21 +85,12 @@
     <t>10.1038:s41587-023-01957-8</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Absolute/Relative</t>
   </si>
   <si>
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -245,6 +236,15 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -675,27 +675,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -710,27 +710,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -745,27 +745,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -780,27 +780,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -815,27 +815,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -850,19 +850,19 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -885,27 +885,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -920,27 +920,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -955,27 +955,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -990,27 +990,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1025,27 +1025,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" t="s">
-        <v>54</v>
-      </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1060,27 +1060,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1095,27 +1095,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1130,27 +1130,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1165,27 +1165,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1200,27 +1200,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1235,27 +1235,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1270,27 +1270,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1305,22 +1305,22 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
         <v>45</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
